--- a/Doc/数据库.xlsx
+++ b/Doc/数据库.xlsx
@@ -1,314 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="9"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="项目表" sheetId="2" r:id="rId1"/>
-    <sheet name="生产产商" sheetId="3" r:id="rId2"/>
-    <sheet name="供应商" sheetId="4" r:id="rId3"/>
-    <sheet name="设备类型" sheetId="5" r:id="rId4"/>
-    <sheet name="设备表" sheetId="1" r:id="rId5"/>
+    <sheet name="项目表" sheetId="1" r:id="rId1"/>
+    <sheet name="生产产商" sheetId="2" r:id="rId2"/>
+    <sheet name="供应商" sheetId="3" r:id="rId3"/>
+    <sheet name="设备类型" sheetId="4" r:id="rId4"/>
+    <sheet name="设备表" sheetId="5" r:id="rId5"/>
     <sheet name="保养记录" sheetId="6" r:id="rId6"/>
     <sheet name="维修记录" sheetId="7" r:id="rId7"/>
     <sheet name="附件" sheetId="8" r:id="rId8"/>
     <sheet name="用户" sheetId="9" r:id="rId9"/>
     <sheet name="权限" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>列名</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>nchar</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+  </si>
+  <si>
+    <t>外键</t>
+  </si>
+  <si>
+    <t>IsValid</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>是否可用 逻辑删除，便于数据恢复</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>DeviceType</t>
+  </si>
   <si>
     <t>Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceTypeID</t>
+  </si>
+  <si>
+    <t>外键 设备类型</t>
   </si>
   <si>
     <t>ManufacturerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsValid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可用 逻辑删除，便于数据恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键 生产厂商</t>
   </si>
   <si>
     <t>SupplierID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键 设备类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键 生产厂商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外键 供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaintainDate</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>保养时间</t>
+  </si>
+  <si>
+    <t>MaintainRecord</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>保养日期</t>
+  </si>
+  <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>数据创建日期</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>保养人员 可空</t>
   </si>
   <si>
     <t>RepairRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaintainRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaintainDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保养时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaintainDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保养人员 可空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RepairDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>维修日期 自动生产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attachment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FilePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期加文件名</t>
   </si>
   <si>
     <t>RelationID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所属记录的ID，外键，可以关联多张表，便于扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期加文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否做缩略图？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保养日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据创建日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Membership ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Permision</t>
   </si>
   <si>
     <t>RoleID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统的权限用枚举定义，加入权限检查点</t>
   </si>
   <si>
     <t>FunctionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统的权限用枚举定义，加入权限检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>此处存放角色和权限的关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>便于修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -316,7 +221,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -324,18 +228,355 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -343,9 +584,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -353,23 +836,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -659,24 +1184,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -690,59 +1216,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -756,54 +1283,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
       <c r="F6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -817,88 +1347,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -912,83 +1443,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1002,73 +1534,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1082,9 +1615,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1093,23 +1626,23 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1118,12 +1651,12 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1132,11 +1665,11 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" t="s">
@@ -1146,63 +1679,64 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1216,97 +1750,98 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2000</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1320,97 +1855,98 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2000</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1424,69 +1960,70 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1500,21 +2037,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Doc/数据库.xlsx
+++ b/Doc/数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="9"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="项目表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>Project</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>保养时间</t>
+  </si>
+  <si>
+    <t>ProductDate</t>
   </si>
   <si>
     <t>MaintainRecord</t>
@@ -204,12 +207,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +234,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -239,7 +342,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,133 +371,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -391,25 +387,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,157 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +578,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,33 +659,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,186 +678,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,8 +1249,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1266,7 +1262,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1285,26 +1281,26 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="6:6">
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1586,8 +1582,8 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1691,6 +1687,11 @@
       </c>
       <c r="D9" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -1733,7 +1734,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1757,7 +1758,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1768,23 +1769,23 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1798,7 +1799,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1807,7 +1808,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1838,7 +1839,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1862,34 +1863,34 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1903,7 +1904,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1912,7 +1913,7 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1943,7 +1944,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1967,20 +1968,20 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1989,12 +1990,12 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2021,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2042,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1">
